--- a/Kira_Ev_Dataset.xlsx
+++ b/Kira_Ev_Dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1332,11 +1332,32 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>HANECİ YAPI'DAN KİRALIK DAİRE EŞYALI</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2+1</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>İstanbul
+Esenyurt</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.000 TL</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1344,28 +1365,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>HANECİ YAPI'DAN KİRALIK DAİRE EŞYALI</t>
+          <t>Maslak 1453 'de Boş Boğaz ve Orman Cephe Kiralık 3.5+1 Daire/LUX</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>220</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2+1</t>
+          <t>3.5+1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>İstanbul
-Esenyurt</t>
+Sarıyer</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>9.000 TL</t>
+          <t>43.500 TL</t>
         </is>
       </c>
     </row>
@@ -1375,28 +1396,28 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Maslak 1453 'de Boş Boğaz ve Orman Cephe Kiralık 3.5+1 Daire/LUX</t>
+          <t>AVRUPA KONUTLARI ÇAMLI VADİ KİRALIK 2+1 GÜNCEL FIRSAT DAİRE</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3.5+1</t>
+          <t>2+1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>İstanbul
-Sarıyer</t>
+Kağıthane</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>43.500 TL</t>
+          <t>24.500 TL</t>
         </is>
       </c>
     </row>
@@ -1406,17 +1427,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AVRUPA KONUTLARI ÇAMLI VADİ KİRALIK 2+1 GÜNCEL FIRSAT DAİRE</t>
+          <t>AVRUPA KONUTLARI ÇAMLI VADİ KİRALIK 3+1 TAŞINMAYA HAZIR DAİRE</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>185</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2+1</t>
+          <t>3+1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1427,7 +1448,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>24.500 TL</t>
+          <t>38.750 TL</t>
         </is>
       </c>
     </row>
@@ -1437,28 +1458,28 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AVRUPA KONUTLARI ÇAMLI VADİ KİRALIK 3+1 TAŞINMAYA HAZIR DAİRE</t>
+          <t>Kanyon Arkası Yeni Esyalı Mint Levent Olive 2+1 Kiralık</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>128</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3+1</t>
+          <t>2+1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>İstanbul
-Kağıthane</t>
+Şişli</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>38.750 TL</t>
+          <t>18.900 TL</t>
         </is>
       </c>
     </row>
@@ -1468,12 +1489,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Kanyon Arkası Yeni Esyalı Mint Levent Olive 2+1 Kiralık</t>
+          <t>ERYAMAN TURYAP'TAN 3 ETAP ALARKO BLOKLARINDA EŞYALI 2+1 KİRALIK</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1483,13 +1504,13 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>İstanbul
-Şişli</t>
+          <t>Ankara
+Etimesgut</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>18.900 TL</t>
+          <t>5.000 TL</t>
         </is>
       </c>
     </row>
@@ -1499,12 +1520,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ERYAMAN TURYAP'TAN 3 ETAP ALARKO BLOKLARINDA EŞYALI 2+1 KİRALIK</t>
+          <t>ŞİRİNEVLER MERKEZ 'DE 5.KAT EŞYALI 2+1 KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1514,13 +1535,13 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Ankara
-Etimesgut</t>
+          <t>İstanbul
+Bahçelievler</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>5.000 TL</t>
+          <t>10.000 TL</t>
         </is>
       </c>
     </row>
@@ -1530,28 +1551,28 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ŞİRİNEVLER MERKEZ 'DE 5.KAT EŞYALI 2+1 KİRALIK DAİRE</t>
+          <t>LİFE STİL GAYRİMENKUL'DEN 3+1 KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>160</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2+1</t>
+          <t>3+1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>İstanbul
-Bahçelievler</t>
+          <t>Malatya
+Battalgazi</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>10.000 TL</t>
+          <t>3.700 TL</t>
         </is>
       </c>
     </row>
@@ -1561,28 +1582,28 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>LİFE STİL GAYRİMENKUL'DEN 3+1 KİRALIK DAİRE</t>
+          <t>UNCALİDA 4+1 KATTA KAPALI OTOPARKLI DOĞALGAZ KOMBİLİ</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>180</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3+1</t>
+          <t>4+1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Malatya
-Battalgazi</t>
+          <t>Antalya
+Konyaaltı</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3.700 TL</t>
+          <t>26.000 TL</t>
         </is>
       </c>
     </row>
@@ -1592,28 +1613,28 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>UNCALİDA 4+1 KATTA KAPALI OTOPARKLI DOĞALGAZ KOMBİLİ</t>
+          <t>RE/MAX DREAM'DEN TUANA EVLERİ'NDE KİRALIK 3+1 ARAKAT DAİRE</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>130</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4+1</t>
+          <t>3+1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Antalya
-Konyaaltı</t>
+          <t>Kocaeli
+İzmit</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>26.000 TL</t>
+          <t>7.700 TL</t>
         </is>
       </c>
     </row>
@@ -1623,17 +1644,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>RE/MAX DREAM'DEN TUANA EVLERİ'NDE KİRALIK 3+1 ARAKAT DAİRE</t>
+          <t>Süper KALİTE ile MUHTEŞEM Doğa ve Deniz Manzarası</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>450</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3+1</t>
+          <t>6+2</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1644,7 +1665,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>7.700 TL</t>
+          <t>25.000 TL</t>
         </is>
       </c>
     </row>
@@ -1654,28 +1675,28 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Süper KALİTE ile MUHTEŞEM Doğa ve Deniz Manzarası</t>
+          <t>Üstünkent Emlak'tan Tıp Fakültesi Has Civarı 1+1 Eşyalı Kiralık</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>6+2</t>
+          <t>1+1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Kocaeli
-İzmit</t>
+          <t>Mersin
+Yenişehir</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>25.000 TL</t>
+          <t>5.500 TL</t>
         </is>
       </c>
     </row>
@@ -1685,28 +1706,28 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Üstünkent Emlak'tan Tıp Fakültesi Has Civarı 1+1 Eşyalı Kiralık</t>
+          <t>ÖZPINARLAR DA 2+1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1+1</t>
+          <t>2+1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Mersin
-Yenişehir</t>
+          <t>Antalya
+Muratpaşa</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>5.500 TL</t>
+          <t>12.000 TL</t>
         </is>
       </c>
     </row>
@@ -1716,28 +1737,28 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ÖZPINARLAR DA 2+1</t>
+          <t>Çıldır'da Temiz 1+1 Eşyalı Daire</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2+1</t>
+          <t>1+1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Antalya
-Muratpaşa</t>
+          <t>Ardahan
+Çıldır</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>12.000 TL</t>
+          <t>1.800 TL</t>
         </is>
       </c>
     </row>
@@ -1747,28 +1768,28 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Çıldır'da Temiz 1+1 Eşyalı Daire</t>
+          <t>VYE'DEN KİRALIK 2+1 DAİRE AYRI MUTFAKLI SİTE İÇERİSİNDE 120 M²</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1+1</t>
+          <t>2+1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Ardahan
-Çıldır</t>
+          <t>Van
+İpekyolu</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1.800 TL</t>
+          <t>2.700 TL</t>
         </is>
       </c>
     </row>
@@ -1778,12 +1799,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>VYE'DEN KİRALIK 2+1 DAİRE AYRI MUTFAKLI SİTE İÇERİSİNDE 120 M²</t>
+          <t>Bahçelievler Cumhuriyet Mah. KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1793,13 +1814,13 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Van
-İpekyolu</t>
+          <t>İstanbul
+Bahçelievler</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2.700 TL</t>
+          <t>6.500 TL</t>
         </is>
       </c>
     </row>
@@ -1809,12 +1830,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Bahçelievler Cumhuriyet Mah. KİRALIK DAİRE</t>
+          <t>DETAYLI RESİMLER VARDIR!!! FUL EŞYALI,DENİZ MANZARALI,HAVUZLU</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1824,13 +1845,13 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>İstanbul
-Bahçelievler</t>
+          <t>Muğla
+Bodrum</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>6.500 TL</t>
+          <t>15.500 TL</t>
         </is>
       </c>
     </row>
@@ -1840,28 +1861,28 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DETAYLI RESİMLER VARDIR!!! FUL EŞYALI,DENİZ MANZARALI,HAVUZLU</t>
+          <t>Besiktaş'a Gayrettepe Metro ve AVM Yakını 3+1 Kiralık Daire</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2+1</t>
+          <t>3+1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Muğla
-Bodrum</t>
+          <t>İstanbul
+Beşiktaş</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>15.500 TL</t>
+          <t>25.000 TL</t>
         </is>
       </c>
     </row>
@@ -1871,28 +1892,28 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Besiktaş'a Gayrettepe Metro ve AVM Yakını 3+1 Kiralık Daire</t>
+          <t>REEL GARİMNKUL'DN ÜNİVERSİTE YOLU ÜZERİ SİTE İÇİ KİRALK 2+1DAİRE</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>110</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>3+1</t>
+          <t>2+1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>İstanbul
-Beşiktaş</t>
+          <t>Kahramanmaraş
+Onikişubat</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>25.000 TL</t>
+          <t>3.250 TL</t>
         </is>
       </c>
     </row>
@@ -1902,12 +1923,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>REEL GARİMNKUL'DN ÜNİVERSİTE YOLU ÜZERİ SİTE İÇİ KİRALK 2+1DAİRE</t>
+          <t>SAHİBİNDEN KİRALIK</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1917,13 +1938,13 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Kahramanmaraş
-Onikişubat</t>
+          <t>Elazığ
+Merkez</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>3.250 TL</t>
+          <t>3.000 TL</t>
         </is>
       </c>
     </row>
@@ -1933,7 +1954,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SAHİBİNDEN KİRALIK</t>
+          <t>LİBADİYEDE 2+1 KİRALIK ARAKAT AİLEYE &amp; BEKARA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1948,13 +1969,13 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Elazığ
-Merkez</t>
+          <t>İstanbul
+Üsküdar</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>3.000 TL</t>
+          <t>10.500 TL</t>
         </is>
       </c>
     </row>
@@ -1964,12 +1985,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>LİBADİYEDE 2+1 KİRALIK ARAKAT AİLEYE &amp; BEKARA</t>
+          <t>KASA GAYRİMENKUL'DEN GÖRÜKLE MERKEZ DE EŞYALI 2+1 DUBLEKS DAİRE</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1978,43 +1999,12 @@
         </is>
       </c>
       <c r="E51" t="inlineStr">
-        <is>
-          <t>İstanbul
-Üsküdar</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>10.500 TL</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>KASA GAYRİMENKUL'DEN GÖRÜKLE MERKEZ DE EŞYALI 2+1 DUBLEKS DAİRE</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>2+1</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
         <is>
           <t>Bursa
 Nilüfer</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>4.250 TL</t>
         </is>
